--- a/natmiOut/OldD0/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ptch2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.633182469832844</v>
+        <v>2.179395</v>
       </c>
       <c r="H2">
-        <v>0.633182469832844</v>
+        <v>6.538185</v>
       </c>
       <c r="I2">
-        <v>0.3222244271953461</v>
+        <v>0.4845018986408914</v>
       </c>
       <c r="J2">
-        <v>0.3222244271953461</v>
+        <v>0.4845018986408914</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.44107940911149</v>
+        <v>5.217641</v>
       </c>
       <c r="N2">
-        <v>3.44107940911149</v>
+        <v>15.652923</v>
       </c>
       <c r="O2">
-        <v>0.2367868529717621</v>
+        <v>0.3148443262844371</v>
       </c>
       <c r="P2">
-        <v>0.2367868529717621</v>
+        <v>0.3148443262844371</v>
       </c>
       <c r="Q2">
-        <v>2.178831159152157</v>
+        <v>11.371300707195</v>
       </c>
       <c r="R2">
-        <v>2.178831159152157</v>
+        <v>102.341706364755</v>
       </c>
       <c r="S2">
-        <v>0.07629850806621466</v>
+        <v>0.1525426738611221</v>
       </c>
       <c r="T2">
-        <v>0.07629850806621466</v>
+        <v>0.1525426738611221</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.633182469832844</v>
+        <v>2.179395</v>
       </c>
       <c r="H3">
-        <v>0.633182469832844</v>
+        <v>6.538185</v>
       </c>
       <c r="I3">
-        <v>0.3222244271953461</v>
+        <v>0.4845018986408914</v>
       </c>
       <c r="J3">
-        <v>0.3222244271953461</v>
+        <v>0.4845018986408914</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.94124946867044</v>
+        <v>9.194163666666666</v>
       </c>
       <c r="N3">
-        <v>8.94124946867044</v>
+        <v>27.582491</v>
       </c>
       <c r="O3">
-        <v>0.6152634309211077</v>
+        <v>0.5547967492168427</v>
       </c>
       <c r="P3">
-        <v>0.6152634309211077</v>
+        <v>0.5547967492168427</v>
       </c>
       <c r="Q3">
-        <v>5.661442421964353</v>
+        <v>20.037714324315</v>
       </c>
       <c r="R3">
-        <v>5.661442421964353</v>
+        <v>180.339428918835</v>
       </c>
       <c r="S3">
-        <v>0.1982529066027973</v>
+        <v>0.2688000783553548</v>
       </c>
       <c r="T3">
-        <v>0.1982529066027973</v>
+        <v>0.2688000783553548</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.633182469832844</v>
+        <v>2.179395</v>
       </c>
       <c r="H4">
-        <v>0.633182469832844</v>
+        <v>6.538185</v>
       </c>
       <c r="I4">
-        <v>0.3222244271953461</v>
+        <v>0.4845018986408914</v>
       </c>
       <c r="J4">
-        <v>0.3222244271953461</v>
+        <v>0.4845018986408914</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.15006329654987</v>
+        <v>2.160325</v>
       </c>
       <c r="N4">
-        <v>2.15006329654987</v>
+        <v>6.480975</v>
       </c>
       <c r="O4">
-        <v>0.1479497161071301</v>
+        <v>0.1303589244987201</v>
       </c>
       <c r="P4">
-        <v>0.1479497161071301</v>
+        <v>0.1303589244987201</v>
       </c>
       <c r="Q4">
-        <v>1.361382388406393</v>
+        <v>4.708201503374999</v>
       </c>
       <c r="R4">
-        <v>1.361382388406393</v>
+        <v>42.373813530375</v>
       </c>
       <c r="S4">
-        <v>0.04767301252633407</v>
+        <v>0.06315914642441452</v>
       </c>
       <c r="T4">
-        <v>0.04767301252633407</v>
+        <v>0.06315914642441452</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.33185312769801</v>
+        <v>0.7348883333333333</v>
       </c>
       <c r="H5">
-        <v>1.33185312769801</v>
+        <v>2.204665</v>
       </c>
       <c r="I5">
-        <v>0.6777755728046539</v>
+        <v>0.1633732264179005</v>
       </c>
       <c r="J5">
-        <v>0.6777755728046539</v>
+        <v>0.1633732264179005</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.44107940911149</v>
+        <v>5.217641</v>
       </c>
       <c r="N5">
-        <v>3.44107940911149</v>
+        <v>15.652923</v>
       </c>
       <c r="O5">
-        <v>0.2367868529717621</v>
+        <v>0.3148443262844371</v>
       </c>
       <c r="P5">
-        <v>0.2367868529717621</v>
+        <v>0.3148443262844371</v>
       </c>
       <c r="Q5">
-        <v>4.583012373682357</v>
+        <v>3.834383498421666</v>
       </c>
       <c r="R5">
-        <v>4.583012373682357</v>
+        <v>34.509451485795</v>
       </c>
       <c r="S5">
-        <v>0.1604883449055474</v>
+        <v>0.05143713340445868</v>
       </c>
       <c r="T5">
-        <v>0.1604883449055474</v>
+        <v>0.05143713340445868</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.33185312769801</v>
+        <v>0.7348883333333333</v>
       </c>
       <c r="H6">
-        <v>1.33185312769801</v>
+        <v>2.204665</v>
       </c>
       <c r="I6">
-        <v>0.6777755728046539</v>
+        <v>0.1633732264179005</v>
       </c>
       <c r="J6">
-        <v>0.6777755728046539</v>
+        <v>0.1633732264179005</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.94124946867044</v>
+        <v>9.194163666666666</v>
       </c>
       <c r="N6">
-        <v>8.94124946867044</v>
+        <v>27.582491</v>
       </c>
       <c r="O6">
-        <v>0.6152634309211077</v>
+        <v>0.5547967492168427</v>
       </c>
       <c r="P6">
-        <v>0.6152634309211077</v>
+        <v>0.5547967492168427</v>
       </c>
       <c r="Q6">
-        <v>11.9084310703769</v>
+        <v>6.756683613390555</v>
       </c>
       <c r="R6">
-        <v>11.9084310703769</v>
+        <v>60.810152520515</v>
       </c>
       <c r="S6">
-        <v>0.4170105243183104</v>
+        <v>0.0906389349257184</v>
       </c>
       <c r="T6">
-        <v>0.4170105243183104</v>
+        <v>0.0906389349257184</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.7348883333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.204665</v>
+      </c>
+      <c r="I7">
+        <v>0.1633732264179005</v>
+      </c>
+      <c r="J7">
+        <v>0.1633732264179005</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.160325</v>
+      </c>
+      <c r="N7">
+        <v>6.480975</v>
+      </c>
+      <c r="O7">
+        <v>0.1303589244987201</v>
+      </c>
+      <c r="P7">
+        <v>0.1303589244987201</v>
+      </c>
+      <c r="Q7">
+        <v>1.587597638708333</v>
+      </c>
+      <c r="R7">
+        <v>14.288378748375</v>
+      </c>
+      <c r="S7">
+        <v>0.0212971580877234</v>
+      </c>
+      <c r="T7">
+        <v>0.0212971580877234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.583934333333333</v>
+      </c>
+      <c r="H8">
+        <v>4.751803</v>
+      </c>
+      <c r="I8">
+        <v>0.3521248749412083</v>
+      </c>
+      <c r="J8">
+        <v>0.3521248749412082</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>5.217641</v>
+      </c>
+      <c r="N8">
+        <v>15.652923</v>
+      </c>
+      <c r="O8">
+        <v>0.3148443262844371</v>
+      </c>
+      <c r="P8">
+        <v>0.3148443262844371</v>
+      </c>
+      <c r="Q8">
+        <v>8.264400718907666</v>
+      </c>
+      <c r="R8">
+        <v>74.37960647016899</v>
+      </c>
+      <c r="S8">
+        <v>0.1108645190188564</v>
+      </c>
+      <c r="T8">
+        <v>0.1108645190188564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.33185312769801</v>
-      </c>
-      <c r="H7">
-        <v>1.33185312769801</v>
-      </c>
-      <c r="I7">
-        <v>0.6777755728046539</v>
-      </c>
-      <c r="J7">
-        <v>0.6777755728046539</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>2.15006329654987</v>
-      </c>
-      <c r="N7">
-        <v>2.15006329654987</v>
-      </c>
-      <c r="O7">
-        <v>0.1479497161071301</v>
-      </c>
-      <c r="P7">
-        <v>0.1479497161071301</v>
-      </c>
-      <c r="Q7">
-        <v>2.863568526258638</v>
-      </c>
-      <c r="R7">
-        <v>2.863568526258638</v>
-      </c>
-      <c r="S7">
-        <v>0.1002767035807961</v>
-      </c>
-      <c r="T7">
-        <v>0.1002767035807961</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.583934333333333</v>
+      </c>
+      <c r="H9">
+        <v>4.751803</v>
+      </c>
+      <c r="I9">
+        <v>0.3521248749412083</v>
+      </c>
+      <c r="J9">
+        <v>0.3521248749412082</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.194163666666666</v>
+      </c>
+      <c r="N9">
+        <v>27.582491</v>
+      </c>
+      <c r="O9">
+        <v>0.5547967492168427</v>
+      </c>
+      <c r="P9">
+        <v>0.5547967492168427</v>
+      </c>
+      <c r="Q9">
+        <v>14.56295149791922</v>
+      </c>
+      <c r="R9">
+        <v>131.066563481273</v>
+      </c>
+      <c r="S9">
+        <v>0.1953577359357696</v>
+      </c>
+      <c r="T9">
+        <v>0.1953577359357696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.583934333333333</v>
+      </c>
+      <c r="H10">
+        <v>4.751803</v>
+      </c>
+      <c r="I10">
+        <v>0.3521248749412083</v>
+      </c>
+      <c r="J10">
+        <v>0.3521248749412082</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.160325</v>
+      </c>
+      <c r="N10">
+        <v>6.480975</v>
+      </c>
+      <c r="O10">
+        <v>0.1303589244987201</v>
+      </c>
+      <c r="P10">
+        <v>0.1303589244987201</v>
+      </c>
+      <c r="Q10">
+        <v>3.421812938658333</v>
+      </c>
+      <c r="R10">
+        <v>30.796316447925</v>
+      </c>
+      <c r="S10">
+        <v>0.04590261998658224</v>
+      </c>
+      <c r="T10">
+        <v>0.04590261998658223</v>
       </c>
     </row>
   </sheetData>
